--- a/Descargas/R15_6º Tribunal De Juicio Oral En Lo Penal De Santiago_Ingresos Causas Por Materia_2020-Febrero.xlsx
+++ b/Descargas/R15_6º Tribunal De Juicio Oral En Lo Penal De Santiago_Ingresos Causas Por Materia_2020-Febrero.xlsx
@@ -341,7 +341,7 @@
         </is>
       </c>
       <c r="B14" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
